--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,90 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>roundCount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>isSystemValid</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>isSchemeCorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>isTracingVerified</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Setup (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Extract (s)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TSK (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Encrypt (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Decrypt (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>TVerify (s)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Setup (B)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Extract (B)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TSK (B)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Encrypt (B)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Decrypt (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TVerify (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Pvk_Id (B)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Pvk_IdTraced (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -544,64 +549,61 @@
       <c r="B2" t="n">
         <v>128</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006036520004272461</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008241212368011475</v>
+        <v>0.006081915</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006586086750030517</v>
+        <v>0.008213257999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006622791290283203</v>
+        <v>0.006675637</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002859425544738769</v>
+        <v>0.006746268</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002912247180938721</v>
+        <v>0.002869511</v>
       </c>
       <c r="L2" t="n">
-        <v>17425817.6</v>
+        <v>0.002893269</v>
       </c>
       <c r="M2" t="n">
-        <v>17425817.6</v>
+        <v>17366016</v>
       </c>
       <c r="N2" t="n">
-        <v>17474560</v>
+        <v>17366016</v>
       </c>
       <c r="O2" t="n">
-        <v>17474560</v>
+        <v>17407795.2</v>
       </c>
       <c r="P2" t="n">
-        <v>17474560</v>
+        <v>17408000</v>
       </c>
       <c r="Q2" t="n">
-        <v>17474560</v>
+        <v>17408000</v>
       </c>
       <c r="R2" t="n">
-        <v>80</v>
+        <v>17408000</v>
       </c>
       <c r="S2" t="n">
         <v>80</v>
       </c>
       <c r="T2" t="n">
+        <v>80</v>
+      </c>
+      <c r="U2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -614,64 +616,61 @@
       <c r="B3" t="n">
         <v>160</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006135714054107666</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008346164226531982</v>
+        <v>0.00625782</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006781959533691406</v>
+        <v>0.008428346999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006777524948120117</v>
+        <v>0.006888354</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002892327308654785</v>
+        <v>0.006956375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002982902526855469</v>
+        <v>0.002940571</v>
       </c>
       <c r="L3" t="n">
-        <v>17506304</v>
+        <v>0.003030062</v>
       </c>
       <c r="M3" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="N3" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="O3" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="P3" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="Q3" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="R3" t="n">
-        <v>80</v>
+        <v>17408000</v>
       </c>
       <c r="S3" t="n">
         <v>80</v>
       </c>
       <c r="T3" t="n">
+        <v>80</v>
+      </c>
+      <c r="U3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -684,64 +683,61 @@
       <c r="B4" t="n">
         <v>224</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006571662425994873</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009223711490631104</v>
+        <v>0.006056547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007482469081878662</v>
+        <v>0.008280503999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00761566162109375</v>
+        <v>0.006794643</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003192365169525146</v>
+        <v>0.006845415</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003199267387390137</v>
+        <v>0.002927208</v>
       </c>
       <c r="L4" t="n">
-        <v>17506304</v>
+        <v>0.002963364</v>
       </c>
       <c r="M4" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="N4" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="O4" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="P4" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="Q4" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="R4" t="n">
-        <v>80</v>
+        <v>17408000</v>
       </c>
       <c r="S4" t="n">
         <v>80</v>
       </c>
       <c r="T4" t="n">
+        <v>80</v>
+      </c>
+      <c r="U4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -754,64 +750,61 @@
       <c r="B5" t="n">
         <v>256</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006919443607330322</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009336292743682861</v>
+        <v>0.006344008</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007441258430480957</v>
+        <v>0.00874759</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007558822631835938</v>
+        <v>0.006993294</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003279435634613037</v>
+        <v>0.007171118</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003251564502716064</v>
+        <v>0.003034806</v>
       </c>
       <c r="L5" t="n">
-        <v>17506304</v>
+        <v>0.003063548</v>
       </c>
       <c r="M5" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="N5" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="O5" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="P5" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="Q5" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>17408000</v>
       </c>
       <c r="S5" t="n">
         <v>80</v>
       </c>
       <c r="T5" t="n">
+        <v>80</v>
+      </c>
+      <c r="U5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -824,64 +817,61 @@
       <c r="B6" t="n">
         <v>384</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006873619556427002</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009302830696105957</v>
+        <v>0.00606606</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007707619667053222</v>
+        <v>0.008221555</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007703530788421631</v>
+        <v>0.006723762</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003276467323303223</v>
+        <v>0.006720304</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003310596942901611</v>
+        <v>0.002907443</v>
       </c>
       <c r="L6" t="n">
-        <v>17506304</v>
+        <v>0.002882338</v>
       </c>
       <c r="M6" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="N6" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="O6" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="P6" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="Q6" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="R6" t="n">
-        <v>80</v>
+        <v>17408000</v>
       </c>
       <c r="S6" t="n">
         <v>80</v>
       </c>
       <c r="T6" t="n">
+        <v>80</v>
+      </c>
+      <c r="U6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -894,64 +884,61 @@
       <c r="B7" t="n">
         <v>512</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006621849536895752</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008995759487152099</v>
+        <v>0.006339788</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007248449325561524</v>
+        <v>0.008527935</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007343053817749023</v>
+        <v>0.006845677</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00318678617477417</v>
+        <v>0.006907356</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003191483020782471</v>
+        <v>0.002990603</v>
       </c>
       <c r="L7" t="n">
-        <v>17506304</v>
+        <v>0.003015733</v>
       </c>
       <c r="M7" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="N7" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="O7" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="P7" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="Q7" t="n">
-        <v>17506304</v>
+        <v>17408000</v>
       </c>
       <c r="R7" t="n">
-        <v>80</v>
+        <v>17408000</v>
       </c>
       <c r="S7" t="n">
         <v>80</v>
       </c>
       <c r="T7" t="n">
+        <v>80</v>
+      </c>
+      <c r="U7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -562,40 +562,40 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006081915</v>
+        <v>0.006820107</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008213257999999999</v>
+        <v>0.009038436</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006675637</v>
+        <v>0.007342458</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006746268</v>
+        <v>0.007336628</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002869511</v>
+        <v>0.00320375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002893269</v>
+        <v>0.003220534</v>
       </c>
       <c r="M2" t="n">
-        <v>17366016</v>
+        <v>17418854.4</v>
       </c>
       <c r="N2" t="n">
-        <v>17366016</v>
+        <v>17418854.4</v>
       </c>
       <c r="O2" t="n">
-        <v>17407795.2</v>
+        <v>17463500.8</v>
       </c>
       <c r="P2" t="n">
-        <v>17408000</v>
+        <v>17463500.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>17408000</v>
+        <v>17469030.4</v>
       </c>
       <c r="R2" t="n">
-        <v>17408000</v>
+        <v>17469030.4</v>
       </c>
       <c r="S2" t="n">
         <v>80</v>
@@ -629,40 +629,40 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00625782</v>
+        <v>0.006988537</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008428346999999999</v>
+        <v>0.009316932999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006888354</v>
+        <v>0.007582438</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006956375</v>
+        <v>0.007667828</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002940571</v>
+        <v>0.00337882</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003030062</v>
+        <v>0.003351545</v>
       </c>
       <c r="M3" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="N3" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="O3" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="P3" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="Q3" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="R3" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="S3" t="n">
         <v>80</v>
@@ -696,40 +696,40 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006056547</v>
+        <v>0.007023358</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008280503999999999</v>
+        <v>0.009519374000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006794643</v>
+        <v>0.00766834</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006845415</v>
+        <v>0.007796383</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002927208</v>
+        <v>0.003397322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002963364</v>
+        <v>0.003352726</v>
       </c>
       <c r="M4" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="N4" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="O4" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="P4" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="Q4" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="R4" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="S4" t="n">
         <v>80</v>
@@ -763,40 +763,40 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006344008</v>
+        <v>0.006668079</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00874759</v>
+        <v>0.009073293</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006993294</v>
+        <v>0.007313955</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007171118</v>
+        <v>0.007434809</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003034806</v>
+        <v>0.003205442</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003063548</v>
+        <v>0.00325985</v>
       </c>
       <c r="M5" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="N5" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="O5" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="P5" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="Q5" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="R5" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="S5" t="n">
         <v>80</v>
@@ -830,40 +830,40 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00606606</v>
+        <v>0.007142258</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008221555</v>
+        <v>0.009672332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006723762</v>
+        <v>0.007664788</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006720304</v>
+        <v>0.007709527</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002907443</v>
+        <v>0.003341544</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002882338</v>
+        <v>0.003376496</v>
       </c>
       <c r="M6" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="N6" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="O6" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="P6" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="Q6" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="R6" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="S6" t="n">
         <v>80</v>
@@ -897,40 +897,40 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006339788</v>
+        <v>0.006817961</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008527935</v>
+        <v>0.009124470000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006845677</v>
+        <v>0.007312655</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006907356</v>
+        <v>0.007486522</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002990603</v>
+        <v>0.003236878</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003015733</v>
+        <v>0.003279269</v>
       </c>
       <c r="M7" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="N7" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="O7" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="P7" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="Q7" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="R7" t="n">
-        <v>17408000</v>
+        <v>17604608</v>
       </c>
       <c r="S7" t="n">
         <v>80</v>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -562,40 +562,40 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006820107</v>
+        <v>0.006320584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009038436</v>
+        <v>0.008626401000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007342458</v>
+        <v>0.007092905</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007336628</v>
+        <v>0.007058334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00320375</v>
+        <v>0.003016675</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003220534</v>
+        <v>0.003092873</v>
       </c>
       <c r="M2" t="n">
-        <v>17418854.4</v>
+        <v>17474150.4</v>
       </c>
       <c r="N2" t="n">
-        <v>17418854.4</v>
+        <v>17474150.4</v>
       </c>
       <c r="O2" t="n">
-        <v>17463500.8</v>
+        <v>17474150.4</v>
       </c>
       <c r="P2" t="n">
-        <v>17463500.8</v>
+        <v>17480294.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>17469030.4</v>
+        <v>17524736</v>
       </c>
       <c r="R2" t="n">
-        <v>17469030.4</v>
+        <v>17524736</v>
       </c>
       <c r="S2" t="n">
         <v>80</v>
@@ -629,40 +629,40 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006988537</v>
+        <v>0.006266212</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009316932999999999</v>
+        <v>0.008569037999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007582438</v>
+        <v>0.00686785</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007667828</v>
+        <v>0.006969893</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00337882</v>
+        <v>0.002951872</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003351545</v>
+        <v>0.003009248</v>
       </c>
       <c r="M3" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="N3" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="O3" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="P3" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="Q3" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="R3" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="S3" t="n">
         <v>80</v>
@@ -696,40 +696,40 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007023358</v>
+        <v>0.006299961</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009519374000000001</v>
+        <v>0.008598602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00766834</v>
+        <v>0.006924629</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007796383</v>
+        <v>0.006984544</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003397322</v>
+        <v>0.003053141</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003352726</v>
+        <v>0.003020561</v>
       </c>
       <c r="M4" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="N4" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="O4" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="P4" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="Q4" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="R4" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="S4" t="n">
         <v>80</v>
@@ -763,40 +763,40 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006668079</v>
+        <v>0.006614017</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009073293</v>
+        <v>0.008961165</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007313955</v>
+        <v>0.007163501</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007434809</v>
+        <v>0.00722909</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003205442</v>
+        <v>0.003131998</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00325985</v>
+        <v>0.003186142</v>
       </c>
       <c r="M5" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="N5" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="O5" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="P5" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="Q5" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="R5" t="n">
-        <v>17604608</v>
+        <v>17555456</v>
       </c>
       <c r="S5" t="n">
         <v>80</v>
@@ -830,40 +830,40 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007142258</v>
+        <v>0.006384897</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009672332</v>
+        <v>0.008922839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007664788</v>
+        <v>0.006978357</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007709527</v>
+        <v>0.006984007</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003341544</v>
+        <v>0.00299238</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003376496</v>
+        <v>0.003080225</v>
       </c>
       <c r="M6" t="n">
-        <v>17604608</v>
+        <v>17585561.6</v>
       </c>
       <c r="N6" t="n">
-        <v>17604608</v>
+        <v>17585561.6</v>
       </c>
       <c r="O6" t="n">
-        <v>17604608</v>
+        <v>17589862.4</v>
       </c>
       <c r="P6" t="n">
-        <v>17604608</v>
+        <v>17589862.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>17604608</v>
+        <v>17589862.4</v>
       </c>
       <c r="R6" t="n">
-        <v>17604608</v>
+        <v>17589862.4</v>
       </c>
       <c r="S6" t="n">
         <v>80</v>
@@ -897,40 +897,40 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006817961</v>
+        <v>0.006792951</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009124470000000001</v>
+        <v>0.009283948</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007312655</v>
+        <v>0.007322192</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007486522</v>
+        <v>0.007481933</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003236878</v>
+        <v>0.003172421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003279269</v>
+        <v>0.00319798</v>
       </c>
       <c r="M7" t="n">
-        <v>17604608</v>
+        <v>17641472</v>
       </c>
       <c r="N7" t="n">
-        <v>17604608</v>
+        <v>17641472</v>
       </c>
       <c r="O7" t="n">
-        <v>17604608</v>
+        <v>17641472</v>
       </c>
       <c r="P7" t="n">
-        <v>17604608</v>
+        <v>17641472</v>
       </c>
       <c r="Q7" t="n">
-        <v>17604608</v>
+        <v>17641472</v>
       </c>
       <c r="R7" t="n">
-        <v>17604608</v>
+        <v>17641472</v>
       </c>
       <c r="S7" t="n">
         <v>80</v>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,15 +526,25 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>mpk (B)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>msk (B)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Pvk_Id (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Pvk_IdTraced (B)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -562,48 +572,54 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006320584</v>
+        <v>0.006954479</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008626401000000001</v>
+        <v>0.009502518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007092905</v>
+        <v>0.007572377</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007058334</v>
+        <v>0.007617521</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003016675</v>
+        <v>0.003312314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003092873</v>
+        <v>0.003361702</v>
       </c>
       <c r="M2" t="n">
-        <v>17474150.4</v>
+        <v>17455104</v>
       </c>
       <c r="N2" t="n">
-        <v>17474150.4</v>
+        <v>17455104</v>
       </c>
       <c r="O2" t="n">
-        <v>17474150.4</v>
+        <v>17461043.2</v>
       </c>
       <c r="P2" t="n">
-        <v>17480294.4</v>
+        <v>17461043.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>17524736</v>
+        <v>17503436.8</v>
       </c>
       <c r="R2" t="n">
-        <v>17524736</v>
+        <v>17503436.8</v>
       </c>
       <c r="S2" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="T2" t="n">
         <v>80</v>
       </c>
       <c r="U2" t="n">
+        <v>80</v>
+      </c>
+      <c r="V2" t="n">
+        <v>80</v>
+      </c>
+      <c r="W2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -629,48 +645,54 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006266212</v>
+        <v>0.007049549</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008569037999999999</v>
+        <v>0.009605682000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00686785</v>
+        <v>0.007792509</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006969893</v>
+        <v>0.007916021000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002951872</v>
+        <v>0.003439498</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003009248</v>
+        <v>0.003502548</v>
       </c>
       <c r="M3" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="N3" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="O3" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="P3" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="Q3" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="R3" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="S3" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="T3" t="n">
         <v>80</v>
       </c>
       <c r="U3" t="n">
+        <v>80</v>
+      </c>
+      <c r="V3" t="n">
+        <v>80</v>
+      </c>
+      <c r="W3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -696,48 +718,54 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006299961</v>
+        <v>0.006809103</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008598602</v>
+        <v>0.009310448000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006924629</v>
+        <v>0.007530546</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006984544</v>
+        <v>0.007524753</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003053141</v>
+        <v>0.003253412</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003020561</v>
+        <v>0.003304088</v>
       </c>
       <c r="M4" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="N4" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="O4" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="P4" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="Q4" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="R4" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="S4" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="T4" t="n">
         <v>80</v>
       </c>
       <c r="U4" t="n">
+        <v>80</v>
+      </c>
+      <c r="V4" t="n">
+        <v>80</v>
+      </c>
+      <c r="W4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -763,48 +791,54 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006614017</v>
+        <v>0.00671643</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008961165</v>
+        <v>0.009203589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007163501</v>
+        <v>0.007465792</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00722909</v>
+        <v>0.007500684</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003131998</v>
+        <v>0.003335619</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003186142</v>
+        <v>0.003392994</v>
       </c>
       <c r="M5" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="N5" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="O5" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="P5" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="Q5" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="R5" t="n">
-        <v>17555456</v>
+        <v>17539072</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="T5" t="n">
         <v>80</v>
       </c>
       <c r="U5" t="n">
+        <v>80</v>
+      </c>
+      <c r="V5" t="n">
+        <v>80</v>
+      </c>
+      <c r="W5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -830,48 +864,54 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006384897</v>
+        <v>0.007021773</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008922839</v>
+        <v>0.009459341</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006978357</v>
+        <v>0.007703888</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006984007</v>
+        <v>0.007759964</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00299238</v>
+        <v>0.003310525</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003080225</v>
+        <v>0.003318548</v>
       </c>
       <c r="M6" t="n">
-        <v>17585561.6</v>
+        <v>17539072</v>
       </c>
       <c r="N6" t="n">
-        <v>17585561.6</v>
+        <v>17539072</v>
       </c>
       <c r="O6" t="n">
-        <v>17589862.4</v>
+        <v>17539072</v>
       </c>
       <c r="P6" t="n">
-        <v>17589862.4</v>
+        <v>17539072</v>
       </c>
       <c r="Q6" t="n">
-        <v>17589862.4</v>
+        <v>17539072</v>
       </c>
       <c r="R6" t="n">
-        <v>17589862.4</v>
+        <v>17539072</v>
       </c>
       <c r="S6" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="T6" t="n">
         <v>80</v>
       </c>
       <c r="U6" t="n">
+        <v>80</v>
+      </c>
+      <c r="V6" t="n">
+        <v>80</v>
+      </c>
+      <c r="W6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -897,48 +937,54 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006792951</v>
+        <v>0.006555402</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009283948</v>
+        <v>0.008937907</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007322192</v>
+        <v>0.007415283</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007481933</v>
+        <v>0.007464731</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003172421</v>
+        <v>0.003177595</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00319798</v>
+        <v>0.003185511</v>
       </c>
       <c r="M7" t="n">
-        <v>17641472</v>
+        <v>17539072</v>
       </c>
       <c r="N7" t="n">
-        <v>17641472</v>
+        <v>17539072</v>
       </c>
       <c r="O7" t="n">
-        <v>17641472</v>
+        <v>17539072</v>
       </c>
       <c r="P7" t="n">
-        <v>17641472</v>
+        <v>17539072</v>
       </c>
       <c r="Q7" t="n">
-        <v>17641472</v>
+        <v>17539072</v>
       </c>
       <c r="R7" t="n">
-        <v>17641472</v>
+        <v>17539072</v>
       </c>
       <c r="S7" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="T7" t="n">
         <v>80</v>
       </c>
       <c r="U7" t="n">
+        <v>80</v>
+      </c>
+      <c r="V7" t="n">
+        <v>80</v>
+      </c>
+      <c r="W7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -572,40 +572,40 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006954479</v>
+        <v>0.006535959</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009502518</v>
+        <v>0.008959376999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007572377</v>
+        <v>0.007254982</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007617521</v>
+        <v>0.007346761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003312314</v>
+        <v>0.003146601</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003361702</v>
+        <v>0.003214264</v>
       </c>
       <c r="M2" t="n">
-        <v>17455104</v>
+        <v>17603174.4</v>
       </c>
       <c r="N2" t="n">
-        <v>17455104</v>
+        <v>17603174.4</v>
       </c>
       <c r="O2" t="n">
-        <v>17461043.2</v>
+        <v>17603174.4</v>
       </c>
       <c r="P2" t="n">
-        <v>17461043.2</v>
+        <v>17646796.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>17503436.8</v>
+        <v>17646796.8</v>
       </c>
       <c r="R2" t="n">
-        <v>17503436.8</v>
+        <v>17646796.8</v>
       </c>
       <c r="S2" t="n">
         <v>104</v>
@@ -645,40 +645,40 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007049549</v>
+        <v>0.006490791</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009605682000000001</v>
+        <v>0.008896697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007792509</v>
+        <v>0.007181418</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007916021000000001</v>
+        <v>0.007218564</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003439498</v>
+        <v>0.003065538</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003502548</v>
+        <v>0.003077245</v>
       </c>
       <c r="M3" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="N3" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="O3" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="P3" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="Q3" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="R3" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="S3" t="n">
         <v>104</v>
@@ -718,40 +718,40 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006809103</v>
+        <v>0.006092978</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009310448000000001</v>
+        <v>0.008199167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007530546</v>
+        <v>0.006852913</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007524753</v>
+        <v>0.006836021</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003253412</v>
+        <v>0.003014076</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003304088</v>
+        <v>0.003038144</v>
       </c>
       <c r="M4" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="N4" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="O4" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="P4" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="Q4" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="R4" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="S4" t="n">
         <v>104</v>
@@ -791,40 +791,40 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00671643</v>
+        <v>0.00641098</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009203589</v>
+        <v>0.008739424000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007465792</v>
+        <v>0.007131195</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007500684</v>
+        <v>0.007182908</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003335619</v>
+        <v>0.003093171</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003392994</v>
+        <v>0.003075385</v>
       </c>
       <c r="M5" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="N5" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="O5" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="P5" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="Q5" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="R5" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="S5" t="n">
         <v>104</v>
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007021773</v>
+        <v>0.006678331</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009459341</v>
+        <v>0.009140706</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007703888</v>
+        <v>0.007341468</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007759964</v>
+        <v>0.007297099</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003310525</v>
+        <v>0.003175056</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003318548</v>
+        <v>0.003340459</v>
       </c>
       <c r="M6" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="N6" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="O6" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="P6" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="Q6" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="R6" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="S6" t="n">
         <v>104</v>
@@ -937,40 +937,40 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006555402</v>
+        <v>0.006811273</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008937907</v>
+        <v>0.009292626</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007415283</v>
+        <v>0.007359469</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007464731</v>
+        <v>0.007351315</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003177595</v>
+        <v>0.003218997</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003185511</v>
+        <v>0.003247917</v>
       </c>
       <c r="M7" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="N7" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="O7" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="P7" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="Q7" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="R7" t="n">
-        <v>17539072</v>
+        <v>17657856</v>
       </c>
       <c r="S7" t="n">
         <v>104</v>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -572,40 +572,40 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006535959</v>
+        <v>0.006724677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008959376999999999</v>
+        <v>0.009340925</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007254982</v>
+        <v>0.007636264</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007346761</v>
+        <v>0.008023199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003146601</v>
+        <v>0.003342769</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003214264</v>
+        <v>0.003357732</v>
       </c>
       <c r="M2" t="n">
-        <v>17603174.4</v>
+        <v>17355161.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17603174.4</v>
+        <v>17355161.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17603174.4</v>
+        <v>17402265.6</v>
       </c>
       <c r="P2" t="n">
-        <v>17646796.8</v>
+        <v>17402265.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>17646796.8</v>
+        <v>17402675.2</v>
       </c>
       <c r="R2" t="n">
-        <v>17646796.8</v>
+        <v>17402675.2</v>
       </c>
       <c r="S2" t="n">
         <v>104</v>
@@ -645,40 +645,40 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006490791</v>
+        <v>0.007389774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008896697</v>
+        <v>0.010088658</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007181418</v>
+        <v>0.007807519</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007218564</v>
+        <v>0.007834389000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003065538</v>
+        <v>0.003718248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003077245</v>
+        <v>0.003609622</v>
       </c>
       <c r="M3" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="N3" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="O3" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="P3" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="Q3" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="R3" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="S3" t="n">
         <v>104</v>
@@ -718,40 +718,40 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006092978</v>
+        <v>0.007415911</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008199167</v>
+        <v>0.009975281000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006852913</v>
+        <v>0.007884527000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006836021</v>
+        <v>0.007933459</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003014076</v>
+        <v>0.003471966</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003038144</v>
+        <v>0.003536274</v>
       </c>
       <c r="M4" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="N4" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="O4" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="P4" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="Q4" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="R4" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="S4" t="n">
         <v>104</v>
@@ -791,40 +791,40 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00641098</v>
+        <v>0.007489469</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008739424000000001</v>
+        <v>0.009530879000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007131195</v>
+        <v>0.007805301</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007182908</v>
+        <v>0.00778203</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003093171</v>
+        <v>0.003416738</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003075385</v>
+        <v>0.003439733</v>
       </c>
       <c r="M5" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="N5" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="O5" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="P5" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="Q5" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="R5" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="S5" t="n">
         <v>104</v>
@@ -864,40 +864,40 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006678331</v>
+        <v>0.00694953</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009140706</v>
+        <v>0.009928282</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007341468</v>
+        <v>0.007821394000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007297099</v>
+        <v>0.007602448</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003175056</v>
+        <v>0.003304527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003340459</v>
+        <v>0.003856909</v>
       </c>
       <c r="M6" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="N6" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="O6" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="P6" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="Q6" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="R6" t="n">
-        <v>17657856</v>
+        <v>17641472</v>
       </c>
       <c r="S6" t="n">
         <v>104</v>
@@ -937,40 +937,40 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006811273</v>
+        <v>0.007179394</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009292626</v>
+        <v>0.009763697</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007359469</v>
+        <v>0.007668401</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007351315</v>
+        <v>0.007967386</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003218997</v>
+        <v>0.003317116</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003247917</v>
+        <v>0.003345239</v>
       </c>
       <c r="M7" t="n">
-        <v>17657856</v>
+        <v>17684480</v>
       </c>
       <c r="N7" t="n">
-        <v>17657856</v>
+        <v>17684480</v>
       </c>
       <c r="O7" t="n">
-        <v>17657856</v>
+        <v>17688780.8</v>
       </c>
       <c r="P7" t="n">
-        <v>17657856</v>
+        <v>17688780.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>17657856</v>
+        <v>17688780.8</v>
       </c>
       <c r="R7" t="n">
-        <v>17657856</v>
+        <v>17688780.8</v>
       </c>
       <c r="S7" t="n">
         <v>104</v>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,25 +526,40 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>elementOfZR (B)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG1 (B)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfGT (B)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>mpk (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>msk (B)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pvk_Id (B)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Pvk_IdTraced (B)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -572,55 +587,64 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006724677</v>
+        <v>0.006693355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009340925</v>
+        <v>0.009222167</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007636264</v>
+        <v>0.007602248</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008023199</v>
+        <v>0.007680348</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003342769</v>
+        <v>0.003419721</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003357732</v>
+        <v>0.003458262</v>
       </c>
       <c r="M2" t="n">
-        <v>17355161.6</v>
+        <v>17520025.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17355161.6</v>
+        <v>17520025.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17402265.6</v>
+        <v>17520025.6</v>
       </c>
       <c r="P2" t="n">
-        <v>17402265.6</v>
+        <v>17569177.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>17402675.2</v>
+        <v>17569587.2</v>
       </c>
       <c r="R2" t="n">
-        <v>17402675.2</v>
+        <v>17569587.2</v>
       </c>
       <c r="S2" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U2" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="V2" t="n">
-        <v>80</v>
+        <v>804</v>
       </c>
       <c r="W2" t="n">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="X2" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="3">
@@ -645,55 +669,64 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007389774</v>
+        <v>0.007303192</v>
       </c>
       <c r="H3" t="n">
-        <v>0.010088658</v>
+        <v>0.009343023000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007807519</v>
+        <v>0.008006041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007834389000000001</v>
+        <v>0.007873767</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003718248</v>
+        <v>0.003110735</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003609622</v>
+        <v>0.003090942</v>
       </c>
       <c r="M3" t="n">
-        <v>17641472</v>
+        <v>17732608</v>
       </c>
       <c r="N3" t="n">
-        <v>17641472</v>
+        <v>17732608</v>
       </c>
       <c r="O3" t="n">
-        <v>17641472</v>
+        <v>17732608</v>
       </c>
       <c r="P3" t="n">
-        <v>17641472</v>
+        <v>17732608</v>
       </c>
       <c r="Q3" t="n">
-        <v>17641472</v>
+        <v>17732608</v>
       </c>
       <c r="R3" t="n">
-        <v>17641472</v>
+        <v>17732608</v>
       </c>
       <c r="S3" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U3" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="V3" t="n">
-        <v>80</v>
+        <v>804</v>
       </c>
       <c r="W3" t="n">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="X3" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="4">
@@ -718,55 +751,64 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007415911</v>
+        <v>0.006750431</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009975281000000001</v>
+        <v>0.00904928</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007884527000000001</v>
+        <v>0.008009046000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007933459</v>
+        <v>0.007828959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003471966</v>
+        <v>0.003186111</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003536274</v>
+        <v>0.003124747</v>
       </c>
       <c r="M4" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="N4" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="O4" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="P4" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="Q4" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="R4" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="S4" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U4" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="V4" t="n">
-        <v>80</v>
+        <v>804</v>
       </c>
       <c r="W4" t="n">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="X4" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="5">
@@ -791,55 +833,64 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007489469</v>
+        <v>0.006695024</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009530879000000001</v>
+        <v>0.008783170999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007805301</v>
+        <v>0.006732543</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00778203</v>
+        <v>0.006950567</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003416738</v>
+        <v>0.002870365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003439733</v>
+        <v>0.002995157</v>
       </c>
       <c r="M5" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="N5" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="O5" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="P5" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="Q5" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="R5" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="S5" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U5" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="V5" t="n">
-        <v>80</v>
+        <v>804</v>
       </c>
       <c r="W5" t="n">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="X5" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="6">
@@ -864,55 +915,64 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00694953</v>
+        <v>0.006751211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009928282</v>
+        <v>0.008748337</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007821394000000001</v>
+        <v>0.007544393</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007602448</v>
+        <v>0.007453755</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003304527</v>
+        <v>0.003192897</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003856909</v>
+        <v>0.003209217</v>
       </c>
       <c r="M6" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="N6" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="O6" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="P6" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="Q6" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="R6" t="n">
-        <v>17641472</v>
+        <v>17760256</v>
       </c>
       <c r="S6" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U6" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="V6" t="n">
-        <v>80</v>
+        <v>804</v>
       </c>
       <c r="W6" t="n">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="X6" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>624</v>
       </c>
     </row>
     <row r="7">
@@ -937,55 +997,64 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007179394</v>
+        <v>0.007338339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009763697</v>
+        <v>0.009110610999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007668401</v>
+        <v>0.00734837</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007967386</v>
+        <v>0.007629534</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003317116</v>
+        <v>0.003151251</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003345239</v>
+        <v>0.003273602</v>
       </c>
       <c r="M7" t="n">
-        <v>17684480</v>
+        <v>17760256</v>
       </c>
       <c r="N7" t="n">
-        <v>17684480</v>
+        <v>17760256</v>
       </c>
       <c r="O7" t="n">
-        <v>17688780.8</v>
+        <v>17760256</v>
       </c>
       <c r="P7" t="n">
-        <v>17688780.8</v>
+        <v>17760256</v>
       </c>
       <c r="Q7" t="n">
-        <v>17688780.8</v>
+        <v>17760256</v>
       </c>
       <c r="R7" t="n">
-        <v>17688780.8</v>
+        <v>17760256</v>
       </c>
       <c r="S7" t="n">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="T7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U7" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="V7" t="n">
-        <v>80</v>
+        <v>804</v>
       </c>
       <c r="W7" t="n">
-        <v>88</v>
+        <v>150</v>
+      </c>
+      <c r="X7" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,70 +496,40 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Setup (B)</t>
+          <t>elementOfZR (B)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Extract (B)</t>
+          <t>elementOfG1 (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TSK (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Encrypt (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Decrypt (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>TVerify (B)</t>
+          <t>Pvk_Id (B)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>elementOfZR (B)</t>
+          <t>Pvk_IdTraced (B)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfG1 (B)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfGT (B)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>mpk (B)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>msk (B)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Pvk_Id (B)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Pvk_IdTraced (B)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -587,63 +557,45 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006693355</v>
+        <v>0.006363547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009222167</v>
+        <v>0.008772736999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007602248</v>
+        <v>0.007012263</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007680348</v>
+        <v>0.007048974</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003419721</v>
+        <v>0.00302065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003458262</v>
+        <v>0.003035779</v>
       </c>
       <c r="M2" t="n">
-        <v>17520025.6</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>17520025.6</v>
+        <v>90</v>
       </c>
       <c r="O2" t="n">
-        <v>17520025.6</v>
+        <v>174</v>
       </c>
       <c r="P2" t="n">
-        <v>17569177.6</v>
+        <v>804</v>
       </c>
       <c r="Q2" t="n">
-        <v>17569587.2</v>
+        <v>150</v>
       </c>
       <c r="R2" t="n">
-        <v>17569587.2</v>
+        <v>450</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="T2" t="n">
-        <v>90</v>
-      </c>
-      <c r="U2" t="n">
-        <v>174</v>
-      </c>
-      <c r="V2" t="n">
-        <v>804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>150</v>
-      </c>
-      <c r="X2" t="n">
-        <v>450</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z2" t="n">
         <v>624</v>
       </c>
     </row>
@@ -669,63 +621,45 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007303192</v>
+        <v>0.006484873</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009343023000000001</v>
+        <v>0.008611127</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008006041</v>
+        <v>0.007057786</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007873767</v>
+        <v>0.007184393</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003110735</v>
+        <v>0.003075832</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003090942</v>
+        <v>0.003205166</v>
       </c>
       <c r="M3" t="n">
-        <v>17732608</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>17732608</v>
+        <v>90</v>
       </c>
       <c r="O3" t="n">
-        <v>17732608</v>
+        <v>174</v>
       </c>
       <c r="P3" t="n">
-        <v>17732608</v>
+        <v>804</v>
       </c>
       <c r="Q3" t="n">
-        <v>17732608</v>
+        <v>150</v>
       </c>
       <c r="R3" t="n">
-        <v>17732608</v>
+        <v>450</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="T3" t="n">
-        <v>90</v>
-      </c>
-      <c r="U3" t="n">
-        <v>174</v>
-      </c>
-      <c r="V3" t="n">
-        <v>804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>150</v>
-      </c>
-      <c r="X3" t="n">
-        <v>450</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z3" t="n">
         <v>624</v>
       </c>
     </row>
@@ -751,63 +685,45 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006750431</v>
+        <v>0.006924968</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00904928</v>
+        <v>0.009552253</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008009046000000001</v>
+        <v>0.007762997</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007828959</v>
+        <v>0.008029486000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003186111</v>
+        <v>0.003318705</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003124747</v>
+        <v>0.003351081</v>
       </c>
       <c r="M4" t="n">
-        <v>17760256</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>17760256</v>
+        <v>90</v>
       </c>
       <c r="O4" t="n">
-        <v>17760256</v>
+        <v>174</v>
       </c>
       <c r="P4" t="n">
-        <v>17760256</v>
+        <v>804</v>
       </c>
       <c r="Q4" t="n">
-        <v>17760256</v>
+        <v>150</v>
       </c>
       <c r="R4" t="n">
-        <v>17760256</v>
+        <v>450</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="T4" t="n">
-        <v>90</v>
-      </c>
-      <c r="U4" t="n">
-        <v>174</v>
-      </c>
-      <c r="V4" t="n">
-        <v>804</v>
-      </c>
-      <c r="W4" t="n">
-        <v>150</v>
-      </c>
-      <c r="X4" t="n">
-        <v>450</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z4" t="n">
         <v>624</v>
       </c>
     </row>
@@ -833,63 +749,45 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006695024</v>
+        <v>0.006916328</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008783170999999999</v>
+        <v>0.009153402999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006732543</v>
+        <v>0.007373848</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006950567</v>
+        <v>0.007394113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002870365</v>
+        <v>0.003196847</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002995157</v>
+        <v>0.003205413</v>
       </c>
       <c r="M5" t="n">
-        <v>17760256</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>17760256</v>
+        <v>90</v>
       </c>
       <c r="O5" t="n">
-        <v>17760256</v>
+        <v>174</v>
       </c>
       <c r="P5" t="n">
-        <v>17760256</v>
+        <v>804</v>
       </c>
       <c r="Q5" t="n">
-        <v>17760256</v>
+        <v>150</v>
       </c>
       <c r="R5" t="n">
-        <v>17760256</v>
+        <v>450</v>
       </c>
       <c r="S5" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="T5" t="n">
-        <v>90</v>
-      </c>
-      <c r="U5" t="n">
-        <v>174</v>
-      </c>
-      <c r="V5" t="n">
-        <v>804</v>
-      </c>
-      <c r="W5" t="n">
-        <v>150</v>
-      </c>
-      <c r="X5" t="n">
-        <v>450</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z5" t="n">
         <v>624</v>
       </c>
     </row>
@@ -915,63 +813,45 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006751211</v>
+        <v>0.006611649</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008748337</v>
+        <v>0.009084502</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007544393</v>
+        <v>0.007355903</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007453755</v>
+        <v>0.007440689</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003192897</v>
+        <v>0.003176265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003209217</v>
+        <v>0.00319516</v>
       </c>
       <c r="M6" t="n">
-        <v>17760256</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>17760256</v>
+        <v>90</v>
       </c>
       <c r="O6" t="n">
-        <v>17760256</v>
+        <v>174</v>
       </c>
       <c r="P6" t="n">
-        <v>17760256</v>
+        <v>804</v>
       </c>
       <c r="Q6" t="n">
-        <v>17760256</v>
+        <v>150</v>
       </c>
       <c r="R6" t="n">
-        <v>17760256</v>
+        <v>450</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="T6" t="n">
-        <v>90</v>
-      </c>
-      <c r="U6" t="n">
-        <v>174</v>
-      </c>
-      <c r="V6" t="n">
-        <v>804</v>
-      </c>
-      <c r="W6" t="n">
-        <v>150</v>
-      </c>
-      <c r="X6" t="n">
-        <v>450</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z6" t="n">
         <v>624</v>
       </c>
     </row>
@@ -997,63 +877,45 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007338339</v>
+        <v>0.006548143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009110610999999999</v>
+        <v>0.009038109000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00734837</v>
+        <v>0.007358518</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007629534</v>
+        <v>0.007365151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003151251</v>
+        <v>0.003113552</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003273602</v>
+        <v>0.003173732</v>
       </c>
       <c r="M7" t="n">
-        <v>17760256</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>17760256</v>
+        <v>90</v>
       </c>
       <c r="O7" t="n">
-        <v>17760256</v>
+        <v>174</v>
       </c>
       <c r="P7" t="n">
-        <v>17760256</v>
+        <v>804</v>
       </c>
       <c r="Q7" t="n">
-        <v>17760256</v>
+        <v>150</v>
       </c>
       <c r="R7" t="n">
-        <v>17760256</v>
+        <v>450</v>
       </c>
       <c r="S7" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="T7" t="n">
-        <v>90</v>
-      </c>
-      <c r="U7" t="n">
-        <v>174</v>
-      </c>
-      <c r="V7" t="n">
-        <v>804</v>
-      </c>
-      <c r="W7" t="n">
-        <v>150</v>
-      </c>
-      <c r="X7" t="n">
-        <v>450</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>450</v>
-      </c>
-      <c r="Z7" t="n">
         <v>624</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -557,22 +557,22 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006363547</v>
+        <v>0.001486247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008772736999999999</v>
+        <v>0.005431014</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007012263</v>
+        <v>0.005423016</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007048974</v>
+        <v>0.001509052</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00302065</v>
+        <v>6.686e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003035779</v>
+        <v>4.869e-06</v>
       </c>
       <c r="M2" t="n">
         <v>30</v>
@@ -621,22 +621,22 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006484873</v>
+        <v>0.001475989</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008611127</v>
+        <v>0.005461557</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007057786</v>
+        <v>0.005479041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007184393</v>
+        <v>0.00152588</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003075832</v>
+        <v>6.468e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003205166</v>
+        <v>6.647e-06</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -685,22 +685,22 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006924968</v>
+        <v>0.001518247</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009552253</v>
+        <v>0.005570653</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007762997</v>
+        <v>0.00554212</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008029486000000001</v>
+        <v>0.001539356</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003318705</v>
+        <v>6.789e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003351081</v>
+        <v>4.865e-06</v>
       </c>
       <c r="M4" t="n">
         <v>30</v>
@@ -749,22 +749,22 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006916328</v>
+        <v>0.001478715</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009153402999999999</v>
+        <v>0.005547068</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007373848</v>
+        <v>0.005469051</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007394113</v>
+        <v>0.001528061</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003196847</v>
+        <v>6.807e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003205413</v>
+        <v>5.292e-06</v>
       </c>
       <c r="M5" t="n">
         <v>30</v>
@@ -813,22 +813,22 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006611649</v>
+        <v>0.001570506</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009084502</v>
+        <v>0.005727991</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007355903</v>
+        <v>0.005718146</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007440689</v>
+        <v>0.001628966</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003176265</v>
+        <v>9.162e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00319516</v>
+        <v>5.733e-06</v>
       </c>
       <c r="M6" t="n">
         <v>30</v>
@@ -877,22 +877,22 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006548143</v>
+        <v>0.001838013</v>
       </c>
       <c r="H7" t="n">
-        <v>0.009038109000000001</v>
+        <v>0.006840402</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007358518</v>
+        <v>0.006708993</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007365151</v>
+        <v>0.001938311</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003113552</v>
+        <v>2.4395e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003173732</v>
+        <v>1.2171e-05</v>
       </c>
       <c r="M7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -557,22 +557,22 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001486247</v>
+        <v>0.001638824</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005431014</v>
+        <v>0.006113445</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005423016</v>
+        <v>0.006028258</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001509052</v>
+        <v>0.001621614</v>
       </c>
       <c r="K2" t="n">
-        <v>6.686e-06</v>
+        <v>7.127e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>4.869e-06</v>
+        <v>5.226e-06</v>
       </c>
       <c r="M2" t="n">
         <v>30</v>
@@ -621,22 +621,22 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001475989</v>
+        <v>0.001656379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005461557</v>
+        <v>0.006093546</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005479041</v>
+        <v>0.006010411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00152588</v>
+        <v>0.001644233</v>
       </c>
       <c r="K3" t="n">
-        <v>6.468e-06</v>
+        <v>7.551e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>6.647e-06</v>
+        <v>5.423e-06</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -685,22 +685,22 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001518247</v>
+        <v>0.001511808</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005570653</v>
+        <v>0.005594634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00554212</v>
+        <v>0.005518984</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001539356</v>
+        <v>0.001507361</v>
       </c>
       <c r="K4" t="n">
-        <v>6.789e-06</v>
+        <v>7.17e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>4.865e-06</v>
+        <v>5.177e-06</v>
       </c>
       <c r="M4" t="n">
         <v>30</v>
@@ -749,22 +749,22 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001478715</v>
+        <v>0.00148638</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005547068</v>
+        <v>0.00536892</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005469051</v>
+        <v>0.005374241</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001528061</v>
+        <v>0.001508053</v>
       </c>
       <c r="K5" t="n">
-        <v>6.807e-06</v>
+        <v>6.861e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>5.292e-06</v>
+        <v>4.796e-06</v>
       </c>
       <c r="M5" t="n">
         <v>30</v>
@@ -813,22 +813,22 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001570506</v>
+        <v>0.001480644</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005727991</v>
+        <v>0.005453244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005718146</v>
+        <v>0.005434101</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001628966</v>
+        <v>0.001536995</v>
       </c>
       <c r="K6" t="n">
-        <v>9.162e-06</v>
+        <v>6.917e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>5.733e-06</v>
+        <v>4.864e-06</v>
       </c>
       <c r="M6" t="n">
         <v>30</v>
@@ -877,22 +877,22 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001838013</v>
+        <v>0.001544756</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006840402</v>
+        <v>0.005593955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006708993</v>
+        <v>0.005542382</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001938311</v>
+        <v>0.001540694</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4395e-05</v>
+        <v>6.904e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2171e-05</v>
+        <v>4.805e-06</v>
       </c>
       <c r="M7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeARES.xlsx
+++ b/SchemeIBMETR/SchemeARES.xlsx
@@ -545,34 +545,34 @@
         <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001638824</v>
+        <v>0.001417263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006113445</v>
+        <v>0.005181384</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006028258</v>
+        <v>0.005200482</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001621614</v>
+        <v>0.001448964</v>
       </c>
       <c r="K2" t="n">
-        <v>7.127e-06</v>
+        <v>6.806e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>5.226e-06</v>
+        <v>4.624e-06</v>
       </c>
       <c r="M2" t="n">
         <v>30</v>
@@ -609,34 +609,34 @@
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001656379</v>
+        <v>0.00142027</v>
       </c>
       <c r="H3" t="n">
-        <v>0.006093546</v>
+        <v>0.00516398</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006010411</v>
+        <v>0.005151409</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001644233</v>
+        <v>0.001447924</v>
       </c>
       <c r="K3" t="n">
-        <v>7.551e-06</v>
+        <v>6.835e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>5.423e-06</v>
+        <v>5.108e-06</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -673,34 +673,34 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001511808</v>
+        <v>0.001432409</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005594634</v>
+        <v>0.005302416</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005518984</v>
+        <v>0.005281717</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001507361</v>
+        <v>0.001481259</v>
       </c>
       <c r="K4" t="n">
-        <v>7.17e-06</v>
+        <v>6.919e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>5.177e-06</v>
+        <v>4.89e-06</v>
       </c>
       <c r="M4" t="n">
         <v>30</v>
@@ -737,34 +737,34 @@
         <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00148638</v>
+        <v>0.001499974</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00536892</v>
+        <v>0.005522216</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005374241</v>
+        <v>0.00551351</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001508053</v>
+        <v>0.001529287</v>
       </c>
       <c r="K5" t="n">
-        <v>6.861e-06</v>
+        <v>7.824e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>4.796e-06</v>
+        <v>5.326e-06</v>
       </c>
       <c r="M5" t="n">
         <v>30</v>
@@ -801,34 +801,34 @@
         <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001480644</v>
+        <v>0.001393199</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005453244</v>
+        <v>0.005122233</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005434101</v>
+        <v>0.005063632</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001536995</v>
+        <v>0.001421571</v>
       </c>
       <c r="K6" t="n">
-        <v>6.917e-06</v>
+        <v>6.983e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>4.864e-06</v>
+        <v>5.136e-06</v>
       </c>
       <c r="M6" t="n">
         <v>30</v>
@@ -865,34 +865,34 @@
         <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001544756</v>
+        <v>0.001417793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005593955</v>
+        <v>0.005103673</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005542382</v>
+        <v>0.005089314</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001540694</v>
+        <v>0.00144303</v>
       </c>
       <c r="K7" t="n">
-        <v>6.904e-06</v>
+        <v>6.905e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>4.805e-06</v>
+        <v>4.743e-06</v>
       </c>
       <c r="M7" t="n">
         <v>30</v>
